--- a/data/trans_orig/IMC_inf_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Habitat-trans_orig.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -8318,7 +8318,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">

--- a/data/trans_orig/IMC_inf_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
